--- a/examples/4_circle2inclined_analysis_files/circle-to-inclined-circle_deltaV.xlsx
+++ b/examples/4_circle2inclined_analysis_files/circle-to-inclined-circle_deltaV.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Lambert" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="L-BFGS-B" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Ipopt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Ipopt" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1193,19 +1192,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>2348.137689216728</v>
+        <v>2348.137686988397</v>
       </c>
       <c r="C2" t="n">
-        <v>5056.496912275459</v>
+        <v>5056.496870443822</v>
       </c>
       <c r="D2" t="n">
-        <v>4524.882286605847</v>
+        <v>4524.882279742752</v>
       </c>
       <c r="E2" t="n">
         <v>8616.332286831526</v>
       </c>
       <c r="F2" t="n">
-        <v>4476.682606045001</v>
+        <v>4476.68259858144</v>
       </c>
     </row>
     <row r="3">
@@ -1213,19 +1212,19 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>2321.29570421043</v>
+        <v>2321.295704073822</v>
       </c>
       <c r="C3" t="n">
-        <v>4569.711749313223</v>
+        <v>4569.711721932372</v>
       </c>
       <c r="D3" t="n">
-        <v>4420.973779205069</v>
+        <v>4420.973771641717</v>
       </c>
       <c r="E3" t="n">
-        <v>8488.375689342856</v>
+        <v>8488.375682556656</v>
       </c>
       <c r="F3" t="n">
-        <v>4374.89503751016</v>
+        <v>4374.895030564202</v>
       </c>
     </row>
     <row r="4">
@@ -1233,19 +1232,19 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>2293.624280118428</v>
+        <v>2293.624280118381</v>
       </c>
       <c r="C4" t="n">
-        <v>4251.961785217858</v>
+        <v>4251.961767936875</v>
       </c>
       <c r="D4" t="n">
-        <v>4312.826589764883</v>
+        <v>4312.826582200772</v>
       </c>
       <c r="E4" t="n">
-        <v>8427.204518678418</v>
+        <v>3948.654258688531</v>
       </c>
       <c r="F4" t="n">
-        <v>4284.235552282304</v>
+        <v>4284.235546444736</v>
       </c>
     </row>
     <row r="5">
@@ -1253,19 +1252,19 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>2265.085574813076</v>
+        <v>2265.085574374033</v>
       </c>
       <c r="C5" t="n">
-        <v>4058.425771563194</v>
+        <v>4058.425762138799</v>
       </c>
       <c r="D5" t="n">
-        <v>4205.950186304221</v>
+        <v>4205.950178887922</v>
       </c>
       <c r="E5" t="n">
-        <v>8358.18136552634</v>
+        <v>4065.960109842434</v>
       </c>
       <c r="F5" t="n">
-        <v>4214.420353752856</v>
+        <v>4214.420349806597</v>
       </c>
     </row>
     <row r="6">
@@ -1276,16 +1275,16 @@
         <v>9885.716587730409</v>
       </c>
       <c r="C6" t="n">
-        <v>3943.13974110525</v>
+        <v>3943.139732175303</v>
       </c>
       <c r="D6" t="n">
-        <v>4101.897140436953</v>
+        <v>4101.897133294609</v>
       </c>
       <c r="E6" t="n">
-        <v>8259.611724994858</v>
+        <v>4026.398660322303</v>
       </c>
       <c r="F6" t="n">
-        <v>4177.246901868397</v>
+        <v>4177.246900677732</v>
       </c>
     </row>
     <row r="7">
@@ -1296,16 +1295,16 @@
         <v>9536.656308933632</v>
       </c>
       <c r="C7" t="n">
-        <v>3808.126348849298</v>
+        <v>3808.126339934553</v>
       </c>
       <c r="D7" t="n">
-        <v>4003.580270314574</v>
+        <v>4003.580263495731</v>
       </c>
       <c r="E7" t="n">
-        <v>8134.139587266096</v>
+        <v>8134.139577426567</v>
       </c>
       <c r="F7" t="n">
-        <v>11297.28024163319</v>
+        <v>4173.931779817784</v>
       </c>
     </row>
     <row r="8">
@@ -1313,19 +1312,19 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>9182.574579391285</v>
+        <v>9182.574555472407</v>
       </c>
       <c r="C8" t="n">
-        <v>3681.267625953721</v>
+        <v>3681.267617340753</v>
       </c>
       <c r="D8" t="n">
-        <v>3916.938416267459</v>
+        <v>3916.938410826495</v>
       </c>
       <c r="E8" t="n">
-        <v>7983.58172973708</v>
+        <v>7983.58171817636</v>
       </c>
       <c r="F8" t="n">
-        <v>11048.07167475939</v>
+        <v>4173.697864654145</v>
       </c>
     </row>
     <row r="9">
@@ -1333,19 +1332,19 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>8826.174835678121</v>
+        <v>8826.174811814286</v>
       </c>
       <c r="C9" t="n">
-        <v>3566.992946887442</v>
+        <v>3566.99293974875</v>
       </c>
       <c r="D9" t="n">
-        <v>3851.179404650893</v>
+        <v>3851.179401085647</v>
       </c>
       <c r="E9" t="n">
-        <v>10793.31387176695</v>
+        <v>7809.015914436142</v>
       </c>
       <c r="F9" t="n">
-        <v>10796.20067948975</v>
+        <v>4173.463518463929</v>
       </c>
     </row>
     <row r="10">
@@ -1353,19 +1352,19 @@
         <v>90</v>
       </c>
       <c r="B10" t="n">
-        <v>8470.548604845339</v>
+        <v>8470.548581275001</v>
       </c>
       <c r="C10" t="n">
-        <v>3462.063353052428</v>
+        <v>3462.06334648125</v>
       </c>
       <c r="D10" t="n">
-        <v>3817.493920158466</v>
+        <v>3817.493919148383</v>
       </c>
       <c r="E10" t="n">
-        <v>9073.650082665206</v>
+        <v>7610.754272216574</v>
       </c>
       <c r="F10" t="n">
-        <v>10542.68827409902</v>
+        <v>4173.228739975826</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1372,19 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>8119.288558063203</v>
+        <v>8119.288535061067</v>
       </c>
       <c r="C11" t="n">
-        <v>3366.378992593533</v>
+        <v>3366.378986808345</v>
       </c>
       <c r="D11" t="n">
-        <v>11095.52010550713</v>
+        <v>3814.148707188067</v>
       </c>
       <c r="E11" t="n">
-        <v>7661.394200125405</v>
+        <v>7388.159510093814</v>
       </c>
       <c r="F11" t="n">
-        <v>10288.75694641746</v>
+        <v>4172.993527915571</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1392,19 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>7776.667346728368</v>
+        <v>7776.667324620995</v>
       </c>
       <c r="C12" t="n">
-        <v>3284.183207217388</v>
+        <v>3284.183202159085</v>
       </c>
       <c r="D12" t="n">
-        <v>10830.5432691771</v>
+        <v>3812.600270669575</v>
       </c>
       <c r="E12" t="n">
         <v>6677.810958455324</v>
       </c>
       <c r="F12" t="n">
-        <v>10035.91566988314</v>
+        <v>4172.757881002664</v>
       </c>
     </row>
     <row r="13">
@@ -1413,19 +1412,19 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>7447.923517882697</v>
+        <v>7447.9234970769</v>
       </c>
       <c r="C13" t="n">
-        <v>3223.723461282684</v>
+        <v>3223.723458582051</v>
       </c>
       <c r="D13" t="n">
-        <v>10562.03254147522</v>
+        <v>3635.555842076733</v>
       </c>
       <c r="E13" t="n">
         <v>6014.059260372995</v>
       </c>
       <c r="F13" t="n">
-        <v>9786.087987333631</v>
+        <v>4172.521797950995</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1432,19 @@
         <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>7139.723849365031</v>
+        <v>7139.723830387144</v>
       </c>
       <c r="C14" t="n">
-        <v>3195.196268323537</v>
+        <v>3195.196268196715</v>
       </c>
       <c r="D14" t="n">
         <v>10291.20547710096</v>
       </c>
       <c r="E14" t="n">
-        <v>5555.356930680895</v>
+        <v>3843.746532550211</v>
       </c>
       <c r="F14" t="n">
-        <v>9541.81190254572</v>
+        <v>4172.285277469827</v>
       </c>
     </row>
     <row r="15">
@@ -1453,19 +1452,19 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>6860.921665025961</v>
+        <v>6860.921648590899</v>
       </c>
       <c r="C15" t="n">
-        <v>3187.397461219845</v>
+        <v>3187.397461200834</v>
       </c>
       <c r="D15" t="n">
         <v>10019.4812571381</v>
       </c>
       <c r="E15" t="n">
-        <v>5231.948749013729</v>
+        <v>5231.948729823984</v>
       </c>
       <c r="F15" t="n">
-        <v>9306.562022538581</v>
+        <v>4573.73337898123</v>
       </c>
     </row>
     <row r="16">
@@ -1473,19 +1472,19 @@
         <v>150</v>
       </c>
       <c r="B16" t="n">
-        <v>6623.82128626387</v>
+        <v>6623.821273389868</v>
       </c>
       <c r="C16" t="n">
-        <v>10597.23230653918</v>
+        <v>3179.523764083561</v>
       </c>
       <c r="D16" t="n">
         <v>9748.556649445802</v>
       </c>
       <c r="E16" t="n">
-        <v>5008.810676065435</v>
+        <v>5008.810663342489</v>
       </c>
       <c r="F16" t="n">
-        <v>9085.285480006885</v>
+        <v>4171.810919030237</v>
       </c>
     </row>
     <row r="17">
@@ -1493,7 +1492,7 @@
         <v>160</v>
       </c>
       <c r="B17" t="n">
-        <v>6446.319708272216</v>
+        <v>6446.319700474299</v>
       </c>
       <c r="C17" t="n">
         <v>10300.04147350249</v>
@@ -1502,7 +1501,7 @@
         <v>9480.520041903064</v>
       </c>
       <c r="E17" t="n">
-        <v>4872.208909333644</v>
+        <v>4872.208902641243</v>
       </c>
       <c r="F17" t="n">
         <v>8885.322621079926</v>
@@ -1513,16 +1512,16 @@
         <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>6343.479019285378</v>
+        <v>6343.479014482451</v>
       </c>
       <c r="C18" t="n">
         <v>9998.441067756019</v>
       </c>
       <c r="D18" t="n">
-        <v>9218.028567090943</v>
+        <v>9218.02854876369</v>
       </c>
       <c r="E18" t="n">
-        <v>4794.192219363754</v>
+        <v>4794.192213094173</v>
       </c>
       <c r="F18" t="n">
         <v>8718.038890490685</v>
@@ -1533,16 +1532,16 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>6225.403662284383</v>
+        <v>6225.403654811586</v>
       </c>
       <c r="C19" t="n">
         <v>9694.171638977514</v>
       </c>
       <c r="D19" t="n">
-        <v>8964.591448586034</v>
+        <v>8964.591431062061</v>
       </c>
       <c r="E19" t="n">
-        <v>4697.388063053845</v>
+        <v>4697.388055765499</v>
       </c>
       <c r="F19" t="n">
         <v>8601.793252520936</v>
@@ -1553,19 +1552,19 @@
         <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>6070.381878357572</v>
+        <v>6070.381868571148</v>
       </c>
       <c r="C20" t="n">
-        <v>9389.233232222316</v>
+        <v>9389.233211012734</v>
       </c>
       <c r="D20" t="n">
-        <v>8725.036504553775</v>
+        <v>8725.036488240065</v>
       </c>
       <c r="E20" t="n">
-        <v>4592.422528690137</v>
+        <v>4592.422520367326</v>
       </c>
       <c r="F20" t="n">
-        <v>8546.848101702028</v>
+        <v>8567.385973408393</v>
       </c>
     </row>
     <row r="21">
@@ -1573,19 +1572,19 @@
         <v>200</v>
       </c>
       <c r="B21" t="n">
-        <v>5882.838875378047</v>
+        <v>5882.838863332829</v>
       </c>
       <c r="C21" t="n">
-        <v>9085.969005318822</v>
+        <v>9085.968984352232</v>
       </c>
       <c r="D21" t="n">
-        <v>8506.301165509984</v>
+        <v>8506.301151003829</v>
       </c>
       <c r="E21" t="n">
-        <v>4485.780508367383</v>
+        <v>4485.780500797458</v>
       </c>
       <c r="F21" t="n">
-        <v>8473.675338705023</v>
+        <v>8667.651189451224</v>
       </c>
     </row>
     <row r="22">
@@ -1593,41 +1592,39 @@
         <v>210</v>
       </c>
       <c r="B22" t="n">
-        <v>5666.390740491112</v>
+        <v>5666.390726847174</v>
       </c>
       <c r="C22" t="n">
-        <v>8787.193863781493</v>
+        <v>8787.193843278445</v>
       </c>
       <c r="D22" t="n">
-        <v>8318.813843290003</v>
+        <v>8318.813831508724</v>
       </c>
       <c r="E22" t="n">
-        <v>4380.048620906609</v>
+        <v>4380.048613503862</v>
       </c>
       <c r="F22" t="n">
-        <v>8371.774385512192</v>
+        <v>8371.774377296932</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>problem</t>
-        </is>
+      <c r="B23" t="n">
+        <v>5424.069634194464</v>
       </c>
       <c r="C23" t="n">
-        <v>8496.397469804035</v>
+        <v>8496.397450042263</v>
       </c>
       <c r="D23" t="n">
-        <v>8178.97010893745</v>
+        <v>8178.970101352163</v>
       </c>
       <c r="E23" t="n">
-        <v>4278.6984411793</v>
+        <v>4278.69843427284</v>
       </c>
       <c r="F23" t="n">
-        <v>8243.572605831563</v>
+        <v>4161.167114515096</v>
       </c>
     </row>
     <row r="24">
@@ -1635,19 +1632,19 @@
         <v>230</v>
       </c>
       <c r="B24" t="n">
-        <v>9063.966175400492</v>
+        <v>9063.966039291392</v>
       </c>
       <c r="C24" t="n">
-        <v>8218.071838718162</v>
+        <v>8218.071820062092</v>
       </c>
       <c r="D24" t="n">
-        <v>8109.142456739816</v>
+        <v>8109.142453203031</v>
       </c>
       <c r="E24" t="n">
-        <v>4187.892730838235</v>
+        <v>4187.89272497702</v>
       </c>
       <c r="F24" t="n">
-        <v>8090.696052024025</v>
+        <v>4169.895726270903</v>
       </c>
     </row>
     <row r="25">
@@ -1655,19 +1652,19 @@
         <v>240</v>
       </c>
       <c r="B25" t="n">
-        <v>7192.800037226216</v>
+        <v>7192.799914832864</v>
       </c>
       <c r="C25" t="n">
-        <v>7958.252207727861</v>
+        <v>7958.252190677847</v>
       </c>
       <c r="D25" t="n">
-        <v>8040.997796526166</v>
+        <v>8040.997790665937</v>
       </c>
       <c r="E25" t="n">
-        <v>4116.94548310205</v>
+        <v>4116.945479053522</v>
       </c>
       <c r="F25" t="n">
-        <v>10555.62838694067</v>
+        <v>4169.654307349526</v>
       </c>
     </row>
     <row r="26">
@@ -1675,19 +1672,19 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>5690.874240680236</v>
+        <v>5690.874152118653</v>
       </c>
       <c r="C26" t="n">
-        <v>7725.432031726967</v>
+        <v>7725.432017003594</v>
       </c>
       <c r="D26" t="n">
-        <v>7942.054510562694</v>
+        <v>7942.054502624493</v>
       </c>
       <c r="E26" t="n">
-        <v>4077.39535462179</v>
+        <v>4077.395353232303</v>
       </c>
       <c r="F26" t="n">
-        <v>8876.60765092226</v>
+        <v>7713.691973795327</v>
       </c>
     </row>
     <row r="27">
@@ -1695,19 +1692,19 @@
         <v>260</v>
       </c>
       <c r="B27" t="n">
-        <v>4649.03332049096</v>
+        <v>4649.033262119616</v>
       </c>
       <c r="C27" t="n">
-        <v>7532.149199366732</v>
+        <v>7532.149188058545</v>
       </c>
       <c r="D27" t="n">
-        <v>7815.258229497851</v>
+        <v>7815.258219657982</v>
       </c>
       <c r="E27" t="n">
-        <v>11258.21664219854</v>
+        <v>4072.621469580614</v>
       </c>
       <c r="F27" t="n">
-        <v>7558.356338017222</v>
+        <v>7488.746806745792</v>
       </c>
     </row>
     <row r="28">
@@ -1715,16 +1712,16 @@
         <v>270</v>
       </c>
       <c r="B28" t="n">
-        <v>3969.249139877379</v>
+        <v>3969.249103410603</v>
       </c>
       <c r="C28" t="n">
-        <v>7397.791786078568</v>
+        <v>7397.791779906788</v>
       </c>
       <c r="D28" t="n">
-        <v>7662.698333028289</v>
+        <v>7662.698321411641</v>
       </c>
       <c r="E28" t="n">
-        <v>11004.88302854632</v>
+        <v>4072.154274764913</v>
       </c>
       <c r="F28" t="n">
         <v>6652.766122090989</v>
@@ -1735,16 +1732,16 @@
         <v>280</v>
       </c>
       <c r="B29" t="n">
-        <v>3548.030174533467</v>
+        <v>3548.030153593716</v>
       </c>
       <c r="C29" t="n">
-        <v>7329.128512854701</v>
+        <v>7329.128508246395</v>
       </c>
       <c r="D29" t="n">
-        <v>10902.86073344372</v>
+        <v>7485.720203413646</v>
       </c>
       <c r="E29" t="n">
-        <v>10748.58171846975</v>
+        <v>4071.685777927179</v>
       </c>
       <c r="F29" t="n">
         <v>6038.475765702252</v>
@@ -1755,16 +1752,16 @@
         <v>290</v>
       </c>
       <c r="B30" t="n">
-        <v>3311.514215308852</v>
+        <v>3311.514203021981</v>
       </c>
       <c r="C30" t="n">
-        <v>7237.882554947289</v>
+        <v>7237.882545985559</v>
       </c>
       <c r="D30" t="n">
-        <v>9145.7180530404</v>
+        <v>7284.928871462887</v>
       </c>
       <c r="E30" t="n">
-        <v>10490.3739148107</v>
+        <v>4071.21597326462</v>
       </c>
       <c r="F30" t="n">
         <v>5609.368020954711</v>
@@ -1775,19 +1772,19 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>2987.026395589246</v>
+        <v>2987.026380144192</v>
       </c>
       <c r="C31" t="n">
-        <v>7114.76423315288</v>
+        <v>7114.764224032624</v>
       </c>
       <c r="D31" t="n">
-        <v>7623.15175735216</v>
+        <v>7060.05655749719</v>
       </c>
       <c r="E31" t="n">
-        <v>10231.51629172882</v>
+        <v>4070.744854939593</v>
       </c>
       <c r="F31" t="n">
-        <v>5304.234946131468</v>
+        <v>5304.234927537784</v>
       </c>
     </row>
     <row r="32">
@@ -1795,19 +1792,19 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>2804.138121165312</v>
+        <v>2804.138112729212</v>
       </c>
       <c r="C32" t="n">
-        <v>6962.96769748055</v>
+        <v>6962.967686420179</v>
       </c>
       <c r="D32" t="n">
-        <v>6540.48630467693</v>
+        <v>6540.486241852206</v>
       </c>
       <c r="E32" t="n">
-        <v>9973.540803279895</v>
+        <v>4045.518548059933</v>
       </c>
       <c r="F32" t="n">
-        <v>5093.54295811668</v>
+        <v>5093.542946154123</v>
       </c>
     </row>
     <row r="33">
@@ -1815,19 +1812,19 @@
         <v>320</v>
       </c>
       <c r="B33" t="n">
-        <v>2668.361657566952</v>
+        <v>2668.361650515404</v>
       </c>
       <c r="C33" t="n">
-        <v>6784.87075230453</v>
+        <v>6784.870739464122</v>
       </c>
       <c r="D33" t="n">
-        <v>5813.229305209803</v>
+        <v>5813.22926299983</v>
       </c>
       <c r="E33" t="n">
-        <v>9718.374389466477</v>
+        <v>4069.798653768603</v>
       </c>
       <c r="F33" t="n">
-        <v>4967.001824842167</v>
+        <v>4967.001818828001</v>
       </c>
     </row>
     <row r="34">
@@ -1835,19 +1832,19 @@
         <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>2558.69649539835</v>
+        <v>2558.696490650483</v>
       </c>
       <c r="C34" t="n">
-        <v>10284.97246482055</v>
+        <v>6582.151892294698</v>
       </c>
       <c r="D34" t="n">
-        <v>5319.064090503818</v>
+        <v>5319.064061527795</v>
       </c>
       <c r="E34" t="n">
         <v>9468.524997081788</v>
       </c>
       <c r="F34" t="n">
-        <v>4890.945254252363</v>
+        <v>4890.945247618753</v>
       </c>
     </row>
     <row r="35">
@@ -1855,19 +1852,19 @@
         <v>340</v>
       </c>
       <c r="B35" t="n">
-        <v>2469.696563883554</v>
+        <v>2469.696560092845</v>
       </c>
       <c r="C35" t="n">
-        <v>8462.922273997308</v>
+        <v>8462.922148711983</v>
       </c>
       <c r="D35" t="n">
-        <v>4977.859815244194</v>
+        <v>4977.859795311912</v>
       </c>
       <c r="E35" t="n">
         <v>9227.379918819575</v>
       </c>
       <c r="F35" t="n">
-        <v>4794.483748203748</v>
+        <v>4794.483740913903</v>
       </c>
     </row>
     <row r="36">
@@ -1875,755 +1872,19 @@
         <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>2406.095670609177</v>
+        <v>2406.095669202934</v>
       </c>
       <c r="C36" t="n">
-        <v>6900.77997893803</v>
+        <v>6900.779884321288</v>
       </c>
       <c r="D36" t="n">
-        <v>4747.359072053619</v>
+        <v>4747.359059146571</v>
       </c>
       <c r="E36" t="n">
         <v>8999.699318398791</v>
       </c>
       <c r="F36" t="n">
-        <v>4689.857929852732</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2348.137686988397</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5056.496870443822</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4524.882279742751</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8616.332286831526</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4476.68259858144</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2321.295704073822</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4569.711721932372</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4420.973771641717</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8488.375682556656</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4374.895030564201</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2293.62428011838</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4251.961767936875</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4312.826582200772</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3948.654258688519</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4284.235546444737</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2265.085574374033</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4058.425762138799</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4205.950178887922</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4065.960109842434</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4214.420349806598</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9885.716587730409</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3943.139732175304</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4101.897133294608</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4026.398660322307</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4177.246900677734</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9536.656308933632</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3808.126339934553</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4003.580263495732</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8134.139577426569</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4173.931779817782</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9182.574555472407</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3681.267617340754</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3916.938410826495</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7983.58171817636</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4173.697864654147</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8826.174811814286</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3566.992939748749</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3851.179401085647</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7809.015914436139</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4173.463518463931</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8470.548581275001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3462.063346481252</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3817.493919148383</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7610.754272216577</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4173.228739975828</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B11" t="n">
-        <v>8119.288535061067</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3366.378986808344</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3814.148707188067</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7388.159510093815</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4172.993527915569</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7776.667324620995</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3284.183202159086</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3812.600270669572</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6677.810958455324</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4172.757881002663</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7447.9234970769</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3223.723458582049</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3635.555842076732</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6014.059260372995</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4172.521797950998</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B14" t="n">
-        <v>7139.723830387144</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3195.196268196713</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10291.20547710096</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3843.746532550267</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4172.285277469827</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6860.921648590899</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3187.397461200834</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10019.4812571381</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5231.948729823984</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4563.517048028911</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6623.821273389868</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3179.523764083564</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9748.556649445802</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5008.810663342489</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4171.810919030233</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6446.319700474299</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10300.04147350249</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9480.520041903064</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4872.208902641243</v>
-      </c>
-      <c r="F17" t="n">
-        <v>8885.322621079926</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6343.479014482451</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9998.441067756019</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9218.02854876369</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4794.192213094173</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8718.038890490685</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6225.403654811586</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9694.171638977514</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8964.591431062061</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4697.388055765499</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8601.793252520936</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6070.381868571147</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9389.233211012734</v>
-      </c>
-      <c r="D20" t="n">
-        <v>8725.036488240065</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4592.422520367325</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8567.385973408393</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5882.838863332829</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9085.968984352232</v>
-      </c>
-      <c r="D21" t="n">
-        <v>8506.301151003829</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4485.780500797458</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8667.651189451224</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5666.390726847174</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8787.193843278445</v>
-      </c>
-      <c r="D22" t="n">
-        <v>8318.813831508724</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4380.048613503865</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8371.774377296926</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5424.069634194464</v>
-      </c>
-      <c r="C23" t="n">
-        <v>8496.397450042263</v>
-      </c>
-      <c r="D23" t="n">
-        <v>8178.970101352163</v>
-      </c>
-      <c r="E23" t="n">
-        <v>4278.698434272841</v>
-      </c>
-      <c r="F23" t="n">
-        <v>4161.167114515097</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B24" t="n">
-        <v>9063.966039291392</v>
-      </c>
-      <c r="C24" t="n">
-        <v>8218.071820062092</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8109.142453203031</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4187.892724977023</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4169.895726270903</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7192.799914832864</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7958.252190677847</v>
-      </c>
-      <c r="D25" t="n">
-        <v>8040.997790665939</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4116.94547905352</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4169.654307349528</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5690.874152118653</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7725.432017003594</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7942.054502624494</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4077.395353232301</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7713.69197379533</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B27" t="n">
-        <v>4649.033262119616</v>
-      </c>
-      <c r="C27" t="n">
-        <v>7532.149188058545</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7815.258219657981</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4072.621469580616</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7488.746806745796</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3969.249103410603</v>
-      </c>
-      <c r="C28" t="n">
-        <v>7397.791779906788</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7662.698321411642</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4072.154274764912</v>
-      </c>
-      <c r="F28" t="n">
-        <v>6652.766122090989</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3548.030153593716</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7329.128508246396</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7485.720203413646</v>
-      </c>
-      <c r="E29" t="n">
-        <v>4071.685777927178</v>
-      </c>
-      <c r="F29" t="n">
-        <v>6038.475765702252</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3311.514203021981</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7237.882545985562</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7284.928871462886</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4071.21597326462</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5609.368020954711</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2987.026380144194</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7114.764224032625</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7060.056557497195</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4070.744854939592</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5304.234946131468</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2804.138112729211</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6962.96768642018</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6540.486241852206</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4045.518548059939</v>
-      </c>
-      <c r="F32" t="n">
-        <v>5093.542946154124</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2668.361650515404</v>
-      </c>
-      <c r="C33" t="n">
-        <v>6784.870739464123</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5813.22926299983</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4069.798653768605</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4967.001818828</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2558.696490650484</v>
-      </c>
-      <c r="C34" t="n">
-        <v>6582.151892294698</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5319.064061527795</v>
-      </c>
-      <c r="E34" t="n">
-        <v>9468.524997081788</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4890.945247618753</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2469.696560092844</v>
-      </c>
-      <c r="C35" t="n">
-        <v>8462.922148711983</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4977.859795311912</v>
-      </c>
-      <c r="E35" t="n">
-        <v>9227.379918819575</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4794.483740913904</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2406.095669202936</v>
-      </c>
-      <c r="C36" t="n">
-        <v>6900.779884321288</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4747.359059146571</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8999.699318398791</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4689.857922283001</v>
+        <v>4689.857922283002</v>
       </c>
     </row>
   </sheetData>
